--- a/df_log_20250327.xlsx
+++ b/df_log_20250327.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="821">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -2487,6 +2487,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11.0"/>
@@ -2534,7 +2537,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2542,6 +2545,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2802,7 +2811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2856,14 +2865,17 @@
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2">
-        <v>0.0</v>
+      <c r="K3" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2895,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -2959,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -3023,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -3055,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -3090,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -3160,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>78</v>
       </c>
@@ -3227,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -3262,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>84</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
@@ -3332,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>95</v>
       </c>
@@ -3392,8 +3404,11 @@
       <c r="I19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="2">
-        <v>0.0</v>
+      <c r="K19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M19" s="2" t="b">
         <v>1</v>
@@ -3427,17 +3442,17 @@
       <c r="I20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>31</v>
+      <c r="K20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -3469,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
@@ -3507,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
@@ -3545,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>123</v>
       </c>
@@ -3580,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>126</v>
       </c>
@@ -3618,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>131</v>
       </c>
@@ -3653,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>136</v>
       </c>
@@ -3685,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>139</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>143</v>
       </c>
@@ -3755,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>146</v>
       </c>
@@ -3790,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>149</v>
       </c>
@@ -3825,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>153</v>
       </c>
@@ -3860,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>156</v>
       </c>
@@ -3895,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>159</v>
       </c>
@@ -3927,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
@@ -3962,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -3997,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>170</v>
       </c>
@@ -4035,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>174</v>
       </c>
@@ -4073,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>177</v>
       </c>
@@ -4111,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>180</v>
       </c>
@@ -4149,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>183</v>
       </c>
@@ -4181,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>188</v>
       </c>
@@ -4219,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>192</v>
       </c>
@@ -4282,14 +4297,17 @@
       <c r="I44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="2">
-        <v>0.0</v>
+      <c r="K44" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>202</v>
       </c>
@@ -4327,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>205</v>
       </c>
@@ -4362,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>209</v>
       </c>
@@ -4422,14 +4440,17 @@
       <c r="I48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="2">
-        <v>0.0</v>
+      <c r="K48" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>215</v>
       </c>
@@ -4464,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>218</v>
       </c>
@@ -4499,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>221</v>
       </c>
@@ -4537,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>225</v>
       </c>
@@ -4603,14 +4624,17 @@
       <c r="I53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="2">
-        <v>0.0</v>
+      <c r="K53" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M53" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>233</v>
       </c>
@@ -4648,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>236</v>
       </c>
@@ -4686,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>239</v>
       </c>
@@ -4724,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>243</v>
       </c>
@@ -4759,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>246</v>
       </c>
@@ -4797,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>252</v>
       </c>
@@ -4832,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>255</v>
       </c>
@@ -4867,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>258</v>
       </c>
@@ -4902,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>261</v>
       </c>
@@ -4940,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>264</v>
       </c>
@@ -5000,17 +5024,17 @@
       <c r="I64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K64" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>31</v>
+      <c r="K64" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>273</v>
       </c>
@@ -5048,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>277</v>
       </c>
@@ -5086,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>283</v>
       </c>
@@ -5124,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15.75" hidden="1" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>286</v>
       </c>
@@ -5159,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>289</v>
       </c>
@@ -5194,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>292</v>
       </c>
@@ -5229,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>295</v>
       </c>
@@ -5264,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>298</v>
       </c>
@@ -5299,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15.75" hidden="1" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>301</v>
       </c>
@@ -5334,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>304</v>
       </c>
@@ -5369,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>307</v>
       </c>
@@ -5404,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="15.75" hidden="1" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>310</v>
       </c>
@@ -5439,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>316</v>
       </c>
@@ -5477,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>320</v>
       </c>
@@ -5512,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>323</v>
       </c>
@@ -5547,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>328</v>
       </c>
@@ -5582,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>331</v>
       </c>
@@ -5620,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>335</v>
       </c>
@@ -5655,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>339</v>
       </c>
@@ -5693,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" hidden="1" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>344</v>
       </c>
@@ -5750,14 +5774,17 @@
       <c r="I85" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K85" s="2">
-        <v>0.0</v>
+      <c r="K85" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M85" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>350</v>
       </c>
@@ -5795,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>354</v>
       </c>
@@ -5830,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>357</v>
       </c>
@@ -5868,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>360</v>
       </c>
@@ -5925,14 +5952,17 @@
       <c r="I90" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K90" s="2">
-        <v>0.0</v>
+      <c r="K90" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L90" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M90" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>367</v>
       </c>
@@ -5967,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>370</v>
       </c>
@@ -6002,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>373</v>
       </c>
@@ -6037,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>376</v>
       </c>
@@ -6072,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>379</v>
       </c>
@@ -6104,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>382</v>
       </c>
@@ -6142,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" hidden="1" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>387</v>
       </c>
@@ -6180,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>391</v>
       </c>
@@ -6215,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>395</v>
       </c>
@@ -6253,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>398</v>
       </c>
@@ -6288,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>401</v>
       </c>
@@ -6320,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>405</v>
       </c>
@@ -6355,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>408</v>
       </c>
@@ -6390,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>411</v>
       </c>
@@ -6431,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>417</v>
       </c>
@@ -6472,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>423</v>
       </c>
@@ -6507,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>426</v>
       </c>
@@ -6539,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>429</v>
       </c>
@@ -6577,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>433</v>
       </c>
@@ -6618,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>437</v>
       </c>
@@ -6653,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>440</v>
       </c>
@@ -6691,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>445</v>
       </c>
@@ -6729,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>448</v>
       </c>
@@ -6767,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>452</v>
       </c>
@@ -6802,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>456</v>
       </c>
@@ -6834,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>460</v>
       </c>
@@ -6872,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>465</v>
       </c>
@@ -6932,14 +6962,17 @@
       <c r="I118" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K118" s="2">
-        <v>0.0</v>
+      <c r="K118" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L118" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M118" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="119" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>471</v>
       </c>
@@ -6977,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>474</v>
       </c>
@@ -7015,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>478</v>
       </c>
@@ -7053,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>482</v>
       </c>
@@ -7113,14 +7146,17 @@
       <c r="I123" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K123" s="2">
-        <v>0.0</v>
+      <c r="K123" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="L123" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M123" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15.75" hidden="1" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>488</v>
       </c>
@@ -7189,14 +7225,17 @@
       <c r="I125" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K125" s="2">
-        <v>0.0</v>
+      <c r="K125" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L125" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M125" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15.75" hidden="1" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>498</v>
       </c>
@@ -7234,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="15.75" hidden="1" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>501</v>
       </c>
@@ -7269,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" ht="15.75" hidden="1" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>507</v>
       </c>
@@ -7307,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" ht="15.75" hidden="1" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>512</v>
       </c>
@@ -7342,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="15.75" hidden="1" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>515</v>
       </c>
@@ -7374,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" ht="15.75" hidden="1" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>518</v>
       </c>
@@ -7440,14 +7479,17 @@
       <c r="I132" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K132" s="2">
-        <v>0.0</v>
+      <c r="K132" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L132" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M132" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="15.75" hidden="1" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>526</v>
       </c>
@@ -7485,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>529</v>
       </c>
@@ -7523,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="15.75" hidden="1" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>533</v>
       </c>
@@ -7561,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15.75" hidden="1" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>538</v>
       </c>
@@ -7596,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15.75" hidden="1" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>542</v>
       </c>
@@ -7631,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="15.75" hidden="1" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>545</v>
       </c>
@@ -7666,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15.75" hidden="1" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>550</v>
       </c>
@@ -7701,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="15.75" hidden="1" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>553</v>
       </c>
@@ -7736,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" ht="15.75" hidden="1" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>556</v>
       </c>
@@ -7774,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" ht="15.75" hidden="1" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>563</v>
       </c>
@@ -7831,14 +7873,17 @@
       <c r="I143" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K143" s="2">
-        <v>0.0</v>
+      <c r="K143" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L143" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M143" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="15.75" hidden="1" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>570</v>
       </c>
@@ -7876,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" ht="15.75" hidden="1" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>576</v>
       </c>
@@ -7911,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" ht="15.75" hidden="1" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>579</v>
       </c>
@@ -7946,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15.75" hidden="1" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>582</v>
       </c>
@@ -7981,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15.75" hidden="1" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>585</v>
       </c>
@@ -8016,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="15.75" hidden="1" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>590</v>
       </c>
@@ -8051,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15.75" hidden="1" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>593</v>
       </c>
@@ -8086,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15.75" hidden="1" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>597</v>
       </c>
@@ -8121,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" ht="15.75" hidden="1" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>600</v>
       </c>
@@ -8153,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" ht="15.75" hidden="1" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
@@ -8188,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" ht="15.75" hidden="1" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>606</v>
       </c>
@@ -8226,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" ht="15.75" hidden="1" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>613</v>
       </c>
@@ -8261,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" ht="15.75" hidden="1" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>616</v>
       </c>
@@ -8324,14 +8369,17 @@
       <c r="I157" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="K157" s="2">
-        <v>0.0</v>
+      <c r="K157" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="L157" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M157" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="158" ht="15.75" hidden="1" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>624</v>
       </c>
@@ -8366,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="15.75" hidden="1" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>628</v>
       </c>
@@ -8404,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="15.75" hidden="1" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>631</v>
       </c>
@@ -8442,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" ht="15.75" hidden="1" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>634</v>
       </c>
@@ -8480,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" ht="15.75" hidden="1" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>637</v>
       </c>
@@ -8515,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" ht="15.75" hidden="1" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>640</v>
       </c>
@@ -8553,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" ht="15.75" hidden="1" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>645</v>
       </c>
@@ -8616,8 +8664,11 @@
       <c r="I165" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K165" s="2">
-        <v>0.0</v>
+      <c r="K165" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L165" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M165" s="2" t="b">
         <v>1</v>
@@ -8651,17 +8702,17 @@
       <c r="I166" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K166" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L166" s="2" t="s">
-        <v>31</v>
+      <c r="K166" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L166" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M166" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="167" ht="15.75" hidden="1" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>655</v>
       </c>
@@ -8696,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="15.75" hidden="1" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>659</v>
       </c>
@@ -8756,8 +8807,11 @@
       <c r="I169" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K169" s="2">
-        <v>0.0</v>
+      <c r="K169" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L169" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M169" s="2" t="b">
         <v>1</v>
@@ -8788,14 +8842,17 @@
       <c r="I170" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K170" s="2">
-        <v>0.0</v>
+      <c r="K170" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="L170" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M170" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="171" ht="15.75" hidden="1" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>671</v>
       </c>
@@ -8855,14 +8912,17 @@
       <c r="I172" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K172" s="2">
-        <v>0.0</v>
+      <c r="K172" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L172" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M172" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="15.75" hidden="1" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>679</v>
       </c>
@@ -8922,14 +8982,17 @@
       <c r="I174" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="K174" s="2">
-        <v>0.0</v>
+      <c r="K174" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L174" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M174" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="15.75" hidden="1" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>688</v>
       </c>
@@ -8992,8 +9055,11 @@
       <c r="I176" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K176" s="2">
-        <v>0.0</v>
+      <c r="K176" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L176" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M176" s="2" t="b">
         <v>1</v>
@@ -9024,8 +9090,11 @@
       <c r="I177" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="K177" s="2">
-        <v>0.0</v>
+      <c r="K177" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L177" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M177" s="2" t="b">
         <v>1</v>
@@ -9059,14 +9128,17 @@
       <c r="I178" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K178" s="2">
-        <v>0.0</v>
+      <c r="K178" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L178" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M178" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="179" ht="15.75" hidden="1" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>703</v>
       </c>
@@ -9101,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" ht="15.75" hidden="1" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>706</v>
       </c>
@@ -9136,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" ht="15.75" hidden="1" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>709</v>
       </c>
@@ -9168,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" ht="15.75" hidden="1" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>712</v>
       </c>
@@ -9200,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" ht="15.75" hidden="1" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>716</v>
       </c>
@@ -9235,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" ht="15.75" hidden="1" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>719</v>
       </c>
@@ -9267,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="15.75" hidden="1" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>722</v>
       </c>
@@ -9302,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" ht="15.75" hidden="1" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>726</v>
       </c>
@@ -9362,14 +9434,17 @@
       <c r="I187" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K187" s="2">
-        <v>0.0</v>
+      <c r="K187" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L187" s="4">
+        <v>45743.0</v>
       </c>
       <c r="M187" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="188" ht="15.75" hidden="1" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>733</v>
       </c>
@@ -9404,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" ht="15.75" hidden="1" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>738</v>
       </c>
@@ -9442,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" ht="15.75" hidden="1" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>741</v>
       </c>
@@ -9477,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" ht="15.75" hidden="1" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>744</v>
       </c>
@@ -9512,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" ht="15.75" hidden="1" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>747</v>
       </c>
@@ -9544,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" ht="15.75" hidden="1" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>751</v>
       </c>
@@ -9579,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="15.75" hidden="1" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>755</v>
       </c>
@@ -9611,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" ht="15.75" hidden="1" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>758</v>
       </c>
@@ -9646,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" ht="15.75" hidden="1" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>762</v>
       </c>
@@ -9681,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" ht="15.75" hidden="1" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>765</v>
       </c>
@@ -9716,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="15.75" hidden="1" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>769</v>
       </c>
@@ -9748,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" ht="15.75" hidden="1" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>772</v>
       </c>
@@ -9783,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" ht="15.75" hidden="1" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>776</v>
       </c>
@@ -9815,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="15.75" hidden="1" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>780</v>
       </c>
@@ -9850,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" ht="15.75" hidden="1" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>783</v>
       </c>
@@ -9882,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" ht="15.75" hidden="1" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>787</v>
       </c>
@@ -9920,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="15.75" hidden="1" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>792</v>
       </c>
@@ -9955,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="15.75" hidden="1" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>796</v>
       </c>
@@ -9993,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" ht="15.75" hidden="1" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>801</v>
       </c>
@@ -10025,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" ht="15.75" hidden="1" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>804</v>
       </c>
@@ -10060,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" ht="15.75" hidden="1" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>807</v>
       </c>
@@ -10092,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" ht="15.75" hidden="1" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>810</v>
       </c>
@@ -10127,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" ht="15.75" hidden="1" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>814</v>
       </c>
@@ -10181,8 +10256,11 @@
       <c r="I211" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K211" s="2">
-        <v>0.0</v>
+      <c r="K211" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L211" s="4">
+        <v>45744.0</v>
       </c>
       <c r="M211" s="2" t="b">
         <v>1</v>
@@ -10978,21 +11056,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$M$211">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1">
-        <filter val="2025-03-27 18:00:00"/>
-        <filter val="2025-03-26"/>
-        <filter val="2025-03-27"/>
-        <filter val="2025-03-27-"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$M$211"/>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
